--- a/biology/Microbiologie/Milieu_CYE/Milieu_CYE.xlsx
+++ b/biology/Microbiologie/Milieu_CYE/Milieu_CYE.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le milieu CYE (de l'anglais Charcoal Yeast Extract) est l'un des premiers milieux de culture employés en microbiologie pour isoler les Légionelles. Il a été mis au point en 1979 par Feeley et al. en remplacement du milieu F-G proposé l'année précédente[1]. Il sert de base à la plupart des milieux plus élaborés, enrichis et/ou sélectifs, servant à la culture des Légionelles : milieu BCYE, milieu BMPAα, milieu GVPC etc.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le milieu CYE (de l'anglais Charcoal Yeast Extract) est l'un des premiers milieux de culture employés en microbiologie pour isoler les Légionelles. Il a été mis au point en 1979 par Feeley et al. en remplacement du milieu F-G proposé l'année précédente. Il sert de base à la plupart des milieux plus élaborés, enrichis et/ou sélectifs, servant à la culture des Légionelles : milieu BCYE, milieu BMPAα, milieu GVPC etc.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Principe</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce milieu semi-défini solide non sélectif dérive du milieu F-G par plusieurs modifications. La base nutritive d'hydrolysat acide de caséine et d'extrait de bœuf est ici remplacée par de l'extrait de levure. La solution polyvitaminique « IsoVitaleX » et l'hémoglobine laissent la place à deux facteurs de croissance purs, respectivement la L-cystéine et le pyrophosphate de fer(III).
-Les auteurs avaient remarqué que le charbon activé favorisait la croissance des Légionelles issues de prélèvements cliniques. Des travaux ultérieurs ont démontré son rôle protecteur vis-à-vis des toxines présentes dans l'agar[2] ainsi que des peroxydes formés dans l'extrait de levure sous l'effet de la lumière, en particulier après autoclavage[3].
+Les auteurs avaient remarqué que le charbon activé favorisait la croissance des Légionelles issues de prélèvements cliniques. Des travaux ultérieurs ont démontré son rôle protecteur vis-à-vis des toxines présentes dans l'agar ainsi que des peroxydes formés dans l'extrait de levure sous l'effet de la lumière, en particulier après autoclavage.
 </t>
         </is>
       </c>
@@ -543,14 +557,16 @@
           <t>Composition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Pour 1000 mL de milieu[4] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Pour 1000 mL de milieu :
 extrait de levure : 10 g
 charbon activé : 2 g
 L-cystéine chlorhydrate : 400 mg
 pyrophosphate de fer(III) : 250 mg
-agar : 13 g[5].</t>
+agar : 13 g.</t>
         </is>
       </c>
     </row>
@@ -578,7 +594,9 @@
           <t>Préparation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La « base CYE » qui se compose des ingrédients thermostables (extrait de levure, charbon activé et agar) est dissoute à chaud dans le volume correspondant d'eau distillée et le mélange est stérilisé à l'autoclave (15 minutes à 121°C). Après refroidissement partiel jusqu'à 50°C les additifs thermosensibles (L-cystéine et pyrophosphate de fer) sont introduits aseptiquement, par exemple par filtration stérilisante. Le mélange homogénéisé est réparti dans des contenants stériles.
 </t>
